--- a/files/galen_analysis_adaptability.xlsx
+++ b/files/galen_analysis_adaptability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Final Analysis Question</t>
   </si>
@@ -34,23 +34,26 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Question: Original Question: "Are pathogenicity scores of mutations or copy number profiles associated with cancer progression and survival for the gene POLR3E?"
+    <t>Rating_Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Are pathogenicity scores of mutations or copy number profiles associated with cancer progression and survival for the gene POLR3E?"
 Original Response: As  an  AI  language  model,  I  do  not  have  the  ability  to  browse  the  latest  research  in  computational  biology  and  genomics.  However,  I  can  suggest  conducting  a  search  on  scientific  databases  and  publications  to  find  the  most  recent  and  relevant  information  on  the  topic.  Some  possible  sources  to  consider  include  PubMed,  Google  Scholar,  and  BioRxiv.  It  may  also  be  helpful  to  consult  with  experts  in  the  field  or  seek  advice  from  a  professional  scientific  journal  or  research  institution. 
 Perturbation (Crisis and Risk Management): Emergency Response - Considering the initiation of emergency protocols
  As  an  AI  language  model,  I  do  not  have  the  ability  to  browse  the  latest  research  in  computational  biology  and  genomics.  However,  I  can  suggest  conducting  a  search  on  scientific  databases  and  publications  to  find  the  most  recent  and  relevant  information  on  the  topic.  Some  possible  sources  to  consider  include  PubMed,  Google  Scholar,  and  BioRxiv.  It  may  also  be  helpful  to  consult  with  experts  in  the  field  or  seek  advice  from  a  professional  scientific  journal  or  research  institution.
 Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
-Now consider the knowlegebase, what else ought we to do? | Latency: 88.26892733573914 | Category: Patient Stratification | Type: Dynamic</t>
-  </si>
-  <si>
-    <t>Question: Original Question: "Are there any first in class opportunities for the gene POLR3E?"
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Are there any first in class opportunities for the gene POLR3E?"
 Original Response: As  an  AI  language  model,  I  cannot  provide  a  definitive  answer  to  the  question.  However,  based  on  my  knowledge,  POLR3E  is  a  gene  that  encodes  the  polymerase  (RNA)  III  subunit  E,  which  is  a  component  of  the  RNA  polymerase  III  complex  responsible  for  transcription  of  small  nuclear  RNAs  (snRNAs)  and  small  nucleolar  RNAs  (snoRNAs).  While  POLR3E  has  been  implicated  in  various  types  of  cancer,  its  role  in  drug  discovery  is  not  well  understood.  Therefore,  it  is  difficult  to  determine  if  there  are  any  first  in  class  opportunities  for  the  gene. 
 Perturbation (Market and Economic Factors): Economic Turnaround - In the context of the recent economic recovery
  Response:  Given  the  context  of  the  recent  economic  recovery,  it  is  important  to  assess  the  current  state  of  the  economy  and  identify  any  potential  areas  for  improvement.  This  could  involve  analyzing  key  economic  indicators  such  as  GDP  growth,  employment  rates,  and  inflation,  as  well  as  identifying  any  emerging  industries  or  technologies  that  could  drive  future  growth.  Additionally,  it  may  be  necessary  to  consider  the  impact  of  any  changes  on  different  segments  of  society,  such  as  those  in  low-income  areas  or  industries  that  have  been  particularly  impacted  by  the  pandemic.  Ultimately,  the  response  should  be  tailored  to  the  specific  needs  and  challenges  of  the  economy,  and  should  aim  to  promote  sustainable  and  inclusive  growth.
 Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
-Now consider the knowlegebase, what else ought we to do? | Latency: 148.3550686836243 | Category: Market Research | Type: Dynamic</t>
-  </si>
-  <si>
-    <t>Question: Original Question: "Describe a strategy to screen for synergistic effects between drug candidates."
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Describe a strategy to screen for synergistic effects between drug candidates."
 Original Response: A  strategy  to  screen  for  synergistic  effects  between  drug  candidates  could  involve  the  following  steps:
 1.  Identify  a  set  of  drug  candidates  that  target  the  same  disease  pathway.
 2.  Conduct  in  vitro  assays  to  determine  the  individual  efficacy  of  each  drug  candidate.
@@ -61,25 +64,138 @@
 Perturbation (Data Quality and Integrity): Misinformation Correction - Considering the detected data inaccuracies
  The  response  should  include  information  about  the  potential  toxicity  and  adverse  interactions  between  the  drug  candidates  when  used  in  combination.
 Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
-Now consider the knowlegebase, what else ought we to do? | Latency: 44.13340465227763 | Category: Detailed understanding | Type: Dynamic</t>
-  </si>
-  <si>
-    <t>The provided answer does not specifically address the original question regarding the association of pathogenicity scores of mutations or copy number profiles with cancer progression and survival for the gene POLR3E, given the perturbation related to emergency response and considering the comprehensive information available in the knowledgebase. It repeats the instruction to search for scientific databases and consult experts without leveraging the detailed knowledgebase provided, which includes experts' opinions, software tools, and case studies relevant to genomic data analysis and cancer therapy, which could have been used to give a more informed and specific answer. Therefore, the answer is rated lower for not effectively incorporating the perturbation context and the available knowledgebase.</t>
-  </si>
-  <si>
-    <t>The provided answer does not directly address the initial question about first in class opportunities for the gene POLR3E, particularly in the context of an economic turnaround. The response seems to diverge significantly from the original query which sought specific information about drug discovery opportunities related to a genetic target. Instead, the response diverges into a general assessment of the economy and potential areas for improvement, which, while potentially relevant in a broader market research context, fails to specifically address the question about POLR3E. Moreover, there's no obvious integration of the detailed knowledgebase into the response, which was expected to guide a more informed and targeted recommendation or action plan regarding POLR3E and its implications for drug discovery in the current economic context.</t>
-  </si>
-  <si>
-    <t>The provided answer highlights a structured approach for screening synergistic effects between drug candidates, detailing steps from identifying drug candidates targeting the same disease pathway to conducting both in vitro and in vivo studies to evaluate efficacy, safety, and potential toxic effects when combined. This approach aligns well with the question's requirements, suggesting a thorough understanding of the process. However, the answer could further incorporate insights from the knowledge base provided, which mentions specific software tools (e.g., MolModelX for simulating drug-protein interactions) and expertise from experts like Dr. Jane Smith and Dr. Aaron Lee, who could offer additional perspectives on neurodegenerative diseases and bioinformatics-driven drug efficacy predictions. Utilizing this knowledge base, more tailored strategies, such as employing bioinformatics tools for predicting drug interactions or referencing expert-led case studies for preclinical trial design, could enhance the strategy's comprehensiveness for screening synergistic effects. Hence, while the response is structured and considers important aspects like toxicity and efficacy, integrating specialized knowledge and tools from the knowledge base could significantly augment the proposed strategy.</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Describe associations between expression and variant profiles for the gene POLR3E."
+Original Response: POLR3E  is  a  gene  that  encodes  the  largest  subunit  of  RNA  polymerase  III  (Pol  III),  which  is  responsible  for  the  transcription  of  small  nuclear  RNAs  (snRNAs)  and  transfer  RNAs  (tRNAs).  Variants  in  POLR3E  have  been  linked  to  several  diseases,  including  Diamond-Blackfan  anemia  and  hypogammaglobulinemia.  
+One  study  examined  the  expression  profiles  of  POLR3E  variants  in  patients  with  Diamond-Blackfan  anemia.  They  found  that  variants  in  POLR3E  resulted  in  decreased  expression  of  the  gene,  which  could  explain  the  low  levels  of  red  blood  cells  seen  in  these  patients.  Another  study  looked  at  the  expression  profiles  of  POLR3E  variants  in  patients  with  hypogammaglobulinemia.  They  found  that  variants  in  POLR3E  were  associated  with  decreased  expression  of  the  gene,  which  could  explain  the  low  levels  of  immunoglobulins  seen  in  these  patients.
+Overall,  the  expression  and  variant  profiles  of  POLR3E  suggest  that  variants  in  this  gene  can  lead  to  decreased  expression  and  potentially  contribute  to  disease.  Further  research  is  needed  to  fully  understand  the  role  of  POLR3E  in  disease  and  to  develop  targeted  therapies. 
+Perturbation (Crisis and Risk Management): Risk Containment - Due to predictive model warnings of elevated risk
+ The  response  should  include  a  discussion  of  the  potential  consequences  of  the  elevated  risk  and  how  it  might  impact  disease  management  and  treatment.  It  should  also  include  information  on  how  the  new  information  can  be  used  to  inform  decision-making  and  improve  patient  outcomes.
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Describe the process of building a chemogenomics model to predict drug-target interactions."
+Original Response: The  process  of  building  a  chemogenomics  model  to  predict  drug-target  interactions  typically  involves  the  following  steps:
+1.  Data  Collection:  The  first  step  is  to  collect  data  on  the  chemical  structures  of  known  drugs  and  their  corresponding  targets.  This  data  can  be  obtained  from  various  sources  such  as  public  databases  or  experimental  studies.
+2.  Feature  Extraction:  The  chemical  structures  of  the  drugs  and  their  targets  are  converted  into  numerical  representations  called  features.  These  features  capture  the  chemical  properties  of  the  molecules  and  can  be  used  to  identify  similarities  and  differences  between  them.
+3.  Machine  Learning:  Machine  learning  algorithms  are  used  to  build  a  model  that  can  predict  drug-target  interactions  based  on  the  features.  The  model  is  trained  on  a  dataset  of  known  drug-target  interactions  and  then  tested  on  a  separate  dataset  to  evaluate  its  performance.
+4.  Model  Evaluation:  The  model  is  evaluated  using  metrics  such  as  precision,  recall,  and  F1  score  to  assess  its  ability  to  accurately  predict  drug-target  interactions.  If  necessary,  the  model  can  be  retrained  or  modified  to  improve  its  performance.
+5.  Validation:  Finally,  the  model  is  validated  using  an  external  dataset  to  ensure  that  it  can  accurately  predict  drug-target  interactions  in  new  and  unseen  data.
+Overall,  the  process  of  building  a  chemogenomics  model  to  predict  drug-target  interactions  involves  a  combination  of  data  collection,  feature  extraction,  machine  learning,  model  evaluation,  and  validation. 
+Perturbation (Data Quality and Integrity): Consistency Verification - Due to inconsistencies found in integrated datasets
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Describe the variant profile of tissues where there is significant differential expression for the gene POLR3E. Include details on copy number variations, mutations, etc."
+Original Response: POLR3E  is  a  gene  that  encodes  the  largest  subunit  of  RNA  polymerase  III,  which  is  responsible  for  transcription  of  small  nuclear  RNA  (snRNA)  and  microRNA  (miRNA)  genes.  The  variant  profile  of  tissues  where  there  is  significant  differential  expression  for  POLR3E  may  include  copy  number  variations  (CNVs),  point  mutations,  and  splice  variants.  CNVs  can  result  in  either  an  increase  or  decrease  in  gene  copy  number,  which  can  lead  to  changes  in  gene  expression.  Point  mutations  can  alter  the  amino  acid  sequence  of  the  protein  encoded  by  the  gene,  resulting  in  functional  changes.  Splice  variants  can  also  result  in  changes  in  protein  sequence  and  function.
+In  terms  of  POLR3E,  there  are  several  reported  CNVs  in  various  tissues.  For  example,  in  glioblastoma  multiforme  (GBM)  tumors,  there  is  a  deletion  of  the  POLR3E  gene  in  ~40%  of  cases.  In  lung  cancer,  there  are  several  CNVs  reported  for  POLR3E,  including  deletions  and  amplifications.  In  pancreatic  cancer,  there  are  both  deletions  and  amplifications  of  POLR3E  reported.
+In  addition  to  CNVs,  there  are  several  point  mutations  reported  for  POLR3E  in  various  tissues.  For  example,  in  colorectal  cancer,  there  are  several  point  mutations  reported  in  POLR3E,  including  mutations  that  result  in  amino  acid  changes.  In  breast  cancer,  there  are  several  point  mutations  reported  for  POLR3E,  including  mutations  that  result  in  truncated  proteins.
+Overall,  the  variant  profile  of  tissues  where  there  is  significant  differential  expression  for  POLR3E  is  complex  and  includes  multiple  types  of  genomic  alterations,  including  CNVs,  point  mutations,  and  splice  variants.  These  alterations  can  lead  to  changes  in  gene  expression  and  may  contribute  to  the  development  and  progression  of  various  types  of  cancer. 
+Perturbation (Data Quality and Integrity): Consistency Verification - Due to inconsistencies found in integrated datasets
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Design a high-throughput screening (HTS) assay to identify small molecule inhibitors of a novel protein target believed to be involved in cancer cell proliferation"
+Original Response: As  an  AI  language  model,  I  can  provide  you  with  some  general  guidance  on  how  to  design  a  high-throughput  screening  assay  to  identify  small  molecule  inhibitors  of  a  novel  protein  target  believed  to  be  involved  in  cancer  cell  proliferation.  However,  please  keep  in  mind  that  this  is  a  complex  topic  and  there  may  be  many  specific  considerations  that  are  relevant  to  your  specific  protein  target  and  cancer  type.  
+Here  are  some  general  steps  that  you  can  follow  to  design  a  high-throughput  screening  assay:
+1.  Define  the  assay  format:  You  will  need  to  decide  whether  to  use  a  cell-based  assay  or  a  biochemical  assay,  and  what  type  of  assay  format  you  want  to  use  (e.g.  fluorescence,  luminescence,  radioactive).
+2.  Identify  the  target  protein:  You  will  need  to  identify  the  target  protein  and  the  specific  cancer  type  that  you  want  to  target.  You  may  want  to  use  a  variety  of  techniques  to  validate  the  target  and  ensure  that  it  is  a  good  drug  target.
+3.  Identify  the  assay  readout:  You  will  need  to  identify  the  specific  assay  readout  that  you  want  to  use  to  measure  the  activity  of  the  target  protein.  This  may  involve  measuring  a  specific  enzymatic  activity  or  a  change  in  protein  expression  or  localization.
+4.  Develop  the  assay:  You  will  need  to  develop  an  assay  that  is  suitable  for  high-throughput  screening.  This  will  involve  designing  the  assay  plates,  selecting  the  appropriate  cell  lines  and  reagents,  optimizing  the  assay  conditions,  and  validating  the  assay.
+5.  Screen  the  assay:  You  will  need  to  screen  the  assay  using  a  library  of  small  molecule  compounds  to  identify  inhibitors  of  the  target  protein.  This  will  involve  running  the  assay  in  high-throughput  mode,  identifying  hits,  and  validating  the  hits  using  appropriate  assays.
+6.  Optimize  the  hits:  You  will  need  to  optimize  the  hits  to  improve  their  potency  and  selectivity,  and  to  identify  lead  compounds  that  are  suitable  for  further  development.  This  may  involve  further  rounds  of  screening  and  optimization.
+7.  Develop  a  lead  compound:  You  will  need  to  develop  a  lead  compound  that  is  suitable  for  further  development  and  testing  in  preclinical  and  clinical  trials.  This  may  involve  further  optimization 
+Perturbation (Technical Setbacks): Software Reliability - In the context of maintaining software reliability
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Determine if the gene POLR3E is an oncogene"
+Original Response: As  an  AI  language  model,  I  can  not  determine  the  answer  to  this  question.  However,  POLR3E  is  a  gene  that  encodes  a  subunit  of  the  RNA  polymerase  III  complex,  which  is  involved  in  the  transcription  of  small  RNAs,  such  as  tRNAs  and  5S  ribosomal  RNA.  Some  studies  have  suggested  that  POLR3E  is  overexpressed  in  certain  cancer  cells,  and  its  expression  levels  have  been  correlated  with  poor  prognosis.  However,  more  research  is  needed  to  determine  whether  POLR3E  is  truly  an  oncogene. 
+Perturbation (Technological Advances): Method Upgrade - In the context of newly validated methodologies
+ As  an  AI  language  model,  I  cannot  determine  the  answer  to  this  question.  However,  POLR3E  is  a  gene  that  encodes  a  subunit  of  the  RNA  polymerase  III  complex,  which  is  involved  in  the  transcription  of  small  RNAs  such  as  tRNAs  and  5S  ribosomal  RNA.  Some  studies  have  suggested  that  POLR3E  is  overexpressed  in  certain  cancer  cells,  and  its  expression  levels  have  been  correlated  with  poor  prognosis.  However,  more  research  is  needed  to  determine  whether  POLR3E  is  truly  an  oncogene.
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Develop a series of siRNA sequences to target and knock down a specific oncogene"
+Original Response: To  develop  a  series  of  siRNA  sequences  to  target  and  knock  down  a  specific  oncogene,  the  following  steps  can  be  taken:
+1.  Identify  the  target  gene:  The  first  step  is  to  identify  the  target  gene  that  is  causing  the  cancer.  This  can  be  done  by  analyzing  the  patient's  tumor  sample  or  by  using  computational  tools  to  identify  genes  that  are  frequently  mutated  in  cancer  cells.
+2.  Identify  the  target  sequence:  Once  the  target  gene  is  identified,  the  next  step  is  to  identify  the  sequence  within  the  gene  that  is  causing  the  cancer.  This  can  be  done  by  analyzing  the  gene  sequence  and  looking  for  specific  mutations  or  by  using  computational  tools  to  identify  the  sequence  that  is  frequently  mutated  in  cancer  cells.
+3.  Design  siRNA  sequences:  Once  the  target  sequence  is  identified,  the  next  step  is  to  design  a  series  of  siRNA  sequences  that  can  target  the  oncogene.  This  can  be  done  using  computational  tools  that  can  identify  the  sequence  that  is  complementary  to  the  target  sequence.
+4.  Test  the  siRNA  sequences:  The  final  step  is  to  test  the  siRNA  sequences  in  vitro  and  in  vivo  to  ensure  that  they  are  effective  in  knocking  down  the  target  gene.  This  can  be  done  using  cell  culture  assays  or  by  injecting  the  siRNA  sequences  into  animals  with  cancer.
+Overall,  the  process  of  developing  a  series  of  siRNA  sequences  to  target  and  knock  down  a  specific  oncogene  is  complex  and  requires  a  deep  understanding  of  genomics  and  drug  discovery.  However,  with  the  right  tools  and  expertise,  it  is  possible  to  develop  effective  therapies  for  cancer. 
+Perturbation (Resource Availability): Funding Adaptability - In the context of adjusted funding levels
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: Original Question: "Discuss how structural biology can aid in the design of a new drug."
+Original Response: Structural  biology  can  aid  in  the  design  of  a  new  drug  by  providing  detailed  information  about  the  structure  and  function  of  the  target  protein.  This  information  can  help  to  identify  key  regions  of  the  protein  that  are  critical  for  its  activity,  and  can  also  reveal  potential  vulnerabilities  that  can  be  exploited  by  drug  molecules.  By  understanding  the  structure  of  the  protein,  scientists  can  design  drug  molecules  that  specifically  target  these  regions,  leading  to  more  effective  and  specific  drugs.  Additionally,  structural  biology  can  help  to  identify  potential  side  effects  and  toxicity  issues  early  in  the  drug  development  process,  allowing  for  more  targeted  and  safer  drug  development. 
+Perturbation (Operational Efficiency): Streamline Bottlenecks - Considering the need to streamline throughput bottlenecks
+ To  streamline  the  response,  it  is  necessary  to  add  a  section  that  discusses  the  specific  ways  in  which  structural  biology  can  help  to  identify  potential  side  effects  and  toxicity  issues  early  in  the  drug  development  process.  This  can  be  done  by  adding  a  paragraph  or  two  that  explains  how  structural  biology  can  be  used  to  predict  potential  drug-protein  interactions  and  how  this  information  can  be  used  to  design  more  effective  and  specific  drugs.  Additionally,  the  response  can  be  further  improved  by  providing  examples  of  specific  drugs  that  have  been  designed  using  structural  biology  techniques,  highlighting  the  success  of  this  approach.
+Knowledgebase: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+Now consider the knowlegebase, what else ought we to do? | Question: nan | </t>
+  </si>
+  <si>
+    <t>The responses, both in the original and perturbation stage, show a limited adaptability in replying to the original question concerning the association of pathogenicity scores of mutations or copy number profiles with cancer progression and survival for the gene POLR3E. Neither the Perturbation Response nor the Final Analysis Response incorporated or made use of the detailed knowledge base provided, which includes information about experts in the field of biomedical research, specific software tools that could potentially assist in researching the query, and relevant case studies that could inform a more nuanced response.
+Given this, it is clear that the responses failed to take new information into account and apply it appropriately to address the query more effectively. This represents a missed opportunity to leverage available resources to provide a more informed and helpful answer.
+As such, both the Perturbation Response and the Final Analysis Response are rated low. The ratings are based on the observed lack of adaptability and failure to integrate and utilize the provided knowledge base to enhance the response.</t>
+  </si>
+  <si>
+    <t>The Perturbation Response fails to directly address the original question regarding first in class opportunities for the gene POLR3E, instead offering a general analysis of economic recovery and its potential impacts. This shift away from the specific inquiry about POLR3E indicates a misunderstanding or misapplication of the perturbation, warranting a low rating of 1. 
+In contrast, the Final Analysis Response, while still not directly answering the original question, acknowledges the wealth of information available in the knowledgebase. It suggests a more focused approach by considering the expertise and tools available to potentially explore POLR3E's implications in drug discovery. Although it does not provide a clear pathway or conclusion regarding POLR3E and first in class opportunities, this acknowledgment of the need to dive deeper into the knowledgebase and apply its contents more adequately addresses the requirements set by the original question when compared to the Perturbation Response, thus receiving a moderate rating of 3.</t>
+  </si>
+  <si>
+    <t>The Perturbed Response identifies an important point about considering potential toxicity and adverse interactions between the drug candidates when used in combination, showing an understanding of the complexities in drug interactions and the importance of safety in drug development. This indicates a good level of adaptation to the revised query that highlighted misinformation in the original response and its correction. It’s rated 4 because it critically addresses the perturbation but does not comprehensively integrate the knowledgebase into the revised response.
+The Final Analysis Response, on the other hand, seems to have not evolved significantly from the perturbed response and does not mention or take into account the information provided in the knowledgebase, such as the utilization of experts’ insights, bioinformatics tools, or case studies, therefore failing to optimize the revised response. This shows a limited adaptability to incorporate the knowledgebase into the final answer, earning it a lower rating of 2. Due to the non-detailed follow-up response regarding the application of the knowledgebase's details, it indicates a missed opportunity to enhance the response leveraging the rich information provided.</t>
+  </si>
+  <si>
+    <t>The Final Analysis Response does not provide any new insights or information beyond the original question and response, essentially repeating the initial details without addressing the perturbation or incorporating the knowledge base. The perturbation specifically asked for a discussion on potential consequences of elevated risk in disease management and treatment, and how new information can inform decision-making to improve patient outcomes. The knowledge base provided experts in relevant fields, software tools, and case studies that could contribute significantly to understanding and addressing the risk. However, the response fails to make use of any of this information, showing no adaptability or application of new knowledge. Consequently, both the Perturbation Response and Final Analysis Response fall short of expectations.</t>
+  </si>
+  <si>
+    <t>The given question and the Perturbation Response both focus on the detailed steps of building a chemogenomics model to predict drug-target interactions, summarizing the process from data collection to model validation effectively, despite the perturbation related to data quality and integrity. The original response does not take the specific content of the knowledgebase into account, potentially missing opportunities to enrich the response with expert insights, case studies, and specific software tools mentioned in the knowledgebase that could directly contribute to addressing the question at hand. Considering the lack of integration of new insights from the knowledgebase in the perturbation response, and given that the final analysis was absent (indicated by 'Question: nan'), this would be rated poorly in terms of adaptability and completeness. Based on these observations, the rating for Perturbation Response would be a 2, acknowledging some effort to address the perturbation but failing to utilize the available knowledgebase effectively. The Final Analysis Response, due to its absence or lack of relevant output directly responding to or evolving from perturbations and new information, receives a rating of 1.</t>
+  </si>
+  <si>
+    <t>The Perturbation Response given doesn't directly leverage or reflect the detailed knowledgebase provided, primarily focusing on a generic overview of the gene POLR3E's variant profile in various cancers without integrating specific insights from the knowledgebase about expert contributions, software tools, or case studies that could have enriched the analysis or suggested further research directions. Given that the knowledgebase includes expertise in genetic markers for neurodegenerative diseases and advanced tools for bioinformatic analysis, a more tailored response considering these aspects, such as potential cross-disease implications or advanced analysis techniques, would have been more insightful. Therefore, the interaction shows a missed opportunity to deepen the analysis or propose specific next steps based on the comprehensive resources available in the knowledgebase. This suggests limited adaptability in integrating and applying new, relevant information from the perturbations and knowledgebase to refine or expand the original analysis.</t>
+  </si>
+  <si>
+    <t>The Perturbation Response doesn't show the model taking into account the specified perturbation of 'Software Reliability' directly in the context of maintaining software reliability. Instead, it provides a detailed outline on designing a high-throughput screening assay for identifying small molecule inhibitors without addressing software reliability issues specifically. Given the perturbation, an ideal response would integrate considerations on maintaining and ensuring software reliability for tools mentioned in the knowledgebase, such as MolModelX, GeneDataAnalyzer, DrugTargetPredictor, and ChemSynthAssist, especially in their application to the assay's design and execution. This aspect is crucial for high-throughput screening assays which are heavily reliant on software for data analysis and simulation. However, without a provided Final Analysis Response that directly addresses the perturbation with knowledge from the knowledgebase, it's difficult to rate this highly. The consideration of experts in the knowledgebase, such as Dr. Aaron Lee’s expertise in genomic data analysis and its applications in drug efficacy prediction, could enrich a response by integrating genomic data for target identification, yet this is not explored. Given these shortcomings, the approach to consider the Knowledgebase is inadequate, leading to lower ratings for both responses.</t>
+  </si>
+  <si>
+    <t>The original question sought to determine if the gene POLR3E is an oncogene. The initial response did not provide a direct answer but highlighted that POLR3E is overexpressed in certain cancer cells, suggesting the need for further research to determine its role as an oncogene. The response to the perturbation, which introduced new validated methodologies, did not significantly alter the original response or incorporate any specific insights from the new methodologies. Additionally, despite the introduction of a comprehensive knowledge base featuring experts in related fields and various software tools that could potentially provide insights into POLR3E's role, the final analysis response did not leverage this knowledge base to enhance the understanding of POLR3E's potential as an oncogene. Therefore, both the Perturbation Response and the Final Analysis Response did not adequately take into account the introduced perturbations or the provided knowledge base. This indicates a lack of adaptability in applying new information or methodologies to refine the answer.</t>
+  </si>
+  <si>
+    <t>Given that the response provided does not incorporate the additional context from the perturbation regarding funding adaptability and fails to leverage the detailed expertise and resources available in the knowledgebase, it falls short of adapting to the new circumstances provided. A more comprehensive approach would involve consulting with the experts like Dr. Jane Smith and Dr. Aaron Lee to refine the gene targeting strategy and perhaps utilize the specialized software tools such as MolModelX, GeneDataAnalyzer, and DrugTargetPredictor for more precise and efficient development of the siRNA sequences. Furthermore, aligning the project with adjusted funding levels could entail exploring cost-effective methodologies or alternative funding sources, which the response does not address. Therefore, the perturbation response could be rated lower due to its lack of adaptability and failure to integrate the rich resources from the knowledgebase.</t>
+  </si>
+  <si>
+    <t>The Perturbation Response improved the original response by suggesting an addition of information regarding how structural biology can identify potential side effects and toxicity issues early in the drug development process. This addition uses the knowledgebase effectively, as it acknowledges the importance of predicting drug-protein interactions for designing more effective drugs, and suggests providing examples of drugs designed using structural biology techniques—directly aligning with the expertise and projects mentioned within the knowledgebase. The Final Analysis Response portion is left empty, which is highly detrimental according to the given guidelines, as it fails to take the new information into account or apply it in any way. Therefore, while the Perturbation Response indicates a thoughtful integration of the perturbations and knowledgebase, the lack of a Final Analysis Response severely impacts the overall quality of the discussion.</t>
+  </si>
+  <si>
+    <t>[1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2]</t>
+  </si>
+  <si>
+    <t>[2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
   </si>
   <si>
     <t>Patient Stratification</t>
@@ -89,6 +205,15 @@
   </si>
   <si>
     <t>Detailed understanding</t>
+  </si>
+  <si>
+    <t>Research Strategy</t>
+  </si>
+  <si>
+    <t>Gene Overview</t>
+  </si>
+  <si>
+    <t>General understanding</t>
   </si>
   <si>
     <t>Dynamic</t>
@@ -452,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,65 +602,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
